--- a/Django/Courses/Django_REST_API_(LODON-APP).xlsx
+++ b/Django/Courses/Django_REST_API_(LODON-APP).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intro,platform" sheetId="1" r:id="rId1"/>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView topLeftCell="E13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX28" sqref="AX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1988,7 +1988,7 @@
       <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="9"/>
     <col min="5" max="5" width="13.88671875" style="9" customWidth="1"/>
@@ -2783,7 +2783,7 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="25"/>
   </cols>
@@ -2888,11 +2888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="28"/>
   </cols>
@@ -3017,10 +3017,10 @@
   <dimension ref="B1:N47"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
@@ -3286,13 +3286,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I39" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="12" width="8.88671875" style="9"/>
+    <col min="13" max="13" width="18" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:12" s="4" customFormat="1"/>
@@ -3719,10 +3722,10 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="9"/>
   </cols>
@@ -3757,11 +3760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="9"/>
   </cols>
@@ -3916,7 +3919,7 @@
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="9"/>
   </cols>
@@ -4067,11 +4070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I44" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="9"/>
   </cols>
@@ -5087,7 +5090,7 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="9"/>
     <col min="5" max="5" width="13.88671875" style="9" customWidth="1"/>
@@ -5477,7 +5480,7 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="9"/>
     <col min="5" max="5" width="13.88671875" style="9" customWidth="1"/>
